--- a/import/201807_import.xlsx
+++ b/import/201807_import.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OSPanel\domains\powercalc\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\powercalc\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -708,9 +708,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -726,13 +723,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -764,41 +755,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1397,9 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7477,143 +7445,143 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2 H4:H9 H11:H12 H55:H56 H40:H41 H43:H52 H28 H31 H23:H25 H38 H17:H19">
-    <cfRule type="cellIs" dxfId="34" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="163" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="33" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="158" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="32" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="153" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="31" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="148" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="30" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="143" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="29" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="138" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="28" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="133" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="27" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="128" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="26" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="123" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="25" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="118" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="24" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="113" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="23" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="108" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="22" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="103" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="21" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="98" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="20" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="93" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H35 H37 H32">
-    <cfRule type="cellIs" dxfId="19" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="88" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="18" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="83" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="17" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="78" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="16" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="73" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="15" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="68" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="14" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="63" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="58" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I57">
-    <cfRule type="cellIs" dxfId="12" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="54" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="55" operator="containsText" text="ЭС в резерве">
+    <cfRule type="containsText" dxfId="8" priority="55" operator="containsText" text="ЭС в резерве">
       <formula>NOT(ISERROR(SEARCH("ЭС в резерве",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="10" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="53" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="9" priority="52" operator="containsText" text="ЛГС">
+    <cfRule type="containsText" dxfId="6" priority="52" operator="containsText" text="ЛГС">
       <formula>NOT(ISERROR(SEARCH("ЛГС",I21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="8" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="7" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="45" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="46" operator="containsText" text="ЭС в резерве">
+    <cfRule type="containsText" dxfId="3" priority="46" operator="containsText" text="ЭС в резерве">
       <formula>NOT(ISERROR(SEARCH("ЭС в резерве",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7627,532 +7595,422 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="14" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="14" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="16"/>
-    <col min="10" max="10" width="9.7109375" style="16" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="14"/>
-    <col min="14" max="14" width="9.85546875" style="14" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" style="16"/>
-    <col min="18" max="18" width="9.85546875" style="16" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="14"/>
-    <col min="22" max="22" width="9.85546875" style="14" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="12" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="12" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="9.7109375" style="13" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="12"/>
+    <col min="14" max="14" width="9.85546875" style="12" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" style="13"/>
+    <col min="18" max="18" width="9.85546875" style="13" customWidth="1"/>
+    <col min="19" max="21" width="9.140625" style="12"/>
+    <col min="22" max="22" width="9.85546875" style="12" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="15" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="13" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="15" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="13" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
     </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:25" s="4" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="19">
         <v>180</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="20">
         <v>211</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="20">
         <v>195</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="31">
+      <c r="F3" s="21"/>
+      <c r="G3" s="28">
         <v>180</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="29">
         <v>211</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="29">
         <v>195</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="22">
-        <v>180</v>
-      </c>
-      <c r="L3" s="23">
+      <c r="J3" s="30"/>
+      <c r="K3" s="19">
+        <v>320</v>
+      </c>
+      <c r="L3" s="20">
         <v>211</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="20">
         <v>195</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="31">
-        <v>180</v>
-      </c>
-      <c r="P3" s="32">
-        <v>211</v>
-      </c>
-      <c r="Q3" s="32">
-        <v>195</v>
-      </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="22">
-        <v>180</v>
-      </c>
-      <c r="T3" s="23">
-        <v>211</v>
-      </c>
-      <c r="U3" s="23">
-        <v>195</v>
-      </c>
-      <c r="V3" s="24"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>180</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>211</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>195</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="34">
+      <c r="F4" s="23"/>
+      <c r="G4" s="31">
         <v>180</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>211</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13">
         <v>195</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="25">
-        <v>180</v>
-      </c>
-      <c r="L4" s="14">
+      <c r="J4" s="32"/>
+      <c r="K4" s="22">
+        <v>320</v>
+      </c>
+      <c r="L4" s="12">
         <v>211</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="12">
         <v>195</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="34">
-        <v>180</v>
-      </c>
-      <c r="P4" s="16">
-        <v>211</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>195</v>
-      </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="25">
-        <v>180</v>
-      </c>
-      <c r="T4" s="14">
-        <v>211</v>
-      </c>
-      <c r="U4" s="14">
-        <v>195</v>
-      </c>
-      <c r="V4" s="26"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="31"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="22"/>
+      <c r="V4" s="23"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>180</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>211</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>195</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="34">
+      <c r="F5" s="23"/>
+      <c r="G5" s="31">
         <v>180</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <v>211</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="13">
         <v>195</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="25">
-        <v>180</v>
-      </c>
-      <c r="L5" s="14">
-        <v>211</v>
-      </c>
-      <c r="M5" s="14">
-        <v>195</v>
-      </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="34">
-        <v>180</v>
-      </c>
-      <c r="P5" s="16">
-        <v>211</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>195</v>
-      </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="25">
-        <v>180</v>
-      </c>
-      <c r="T5" s="14">
-        <v>211</v>
-      </c>
-      <c r="U5" s="14">
-        <v>195</v>
-      </c>
-      <c r="V5" s="26"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="31"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="22"/>
+      <c r="V5" s="23"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>180</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>211</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>195</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="34">
+      <c r="F6" s="23"/>
+      <c r="G6" s="31">
         <v>180</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="13">
         <v>211</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="13">
         <v>195</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="25">
-        <v>180</v>
-      </c>
-      <c r="L6" s="14">
-        <v>211</v>
-      </c>
-      <c r="M6" s="14">
-        <v>195</v>
-      </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="34">
-        <v>180</v>
-      </c>
-      <c r="P6" s="16">
-        <v>211</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>195</v>
-      </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="25">
-        <v>180</v>
-      </c>
-      <c r="T6" s="14">
-        <v>211</v>
-      </c>
-      <c r="U6" s="14">
-        <v>195</v>
-      </c>
-      <c r="V6" s="26"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="31"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="22"/>
+      <c r="V6" s="23"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>3</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>50</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>211</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>195</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="34">
+      <c r="F7" s="23"/>
+      <c r="G7" s="31">
         <v>50</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="13">
         <v>211</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="13">
         <v>195</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="25">
+      <c r="J7" s="32"/>
+      <c r="K7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="31">
         <v>50</v>
       </c>
-      <c r="L7" s="14">
+      <c r="P7" s="13">
         <v>211</v>
       </c>
-      <c r="M7" s="14">
+      <c r="Q7" s="13">
         <v>195</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="34">
-        <v>50</v>
-      </c>
-      <c r="P7" s="16">
-        <v>211</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>195</v>
-      </c>
-      <c r="R7" s="35"/>
-      <c r="S7" s="25">
-        <v>50</v>
-      </c>
-      <c r="T7" s="14">
-        <v>211</v>
-      </c>
-      <c r="U7" s="14">
-        <v>195</v>
-      </c>
-      <c r="V7" s="26"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="22"/>
+      <c r="V7" s="23"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>3</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>50</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>211</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>195</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="34">
+      <c r="F8" s="23"/>
+      <c r="G8" s="31">
         <v>50</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="13">
         <v>211</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="13">
         <v>195</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="25">
+      <c r="J8" s="32"/>
+      <c r="K8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="31">
         <v>50</v>
       </c>
-      <c r="L8" s="14">
+      <c r="P8" s="13">
         <v>211</v>
       </c>
-      <c r="M8" s="14">
+      <c r="Q8" s="13">
         <v>195</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="34">
-        <v>50</v>
-      </c>
-      <c r="P8" s="16">
-        <v>211</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>195</v>
-      </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="25">
-        <v>50</v>
-      </c>
-      <c r="T8" s="14">
-        <v>211</v>
-      </c>
-      <c r="U8" s="14">
-        <v>195</v>
-      </c>
-      <c r="V8" s="26"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="22"/>
+      <c r="V8" s="23"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="19">
-        <v>4</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29">
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26">
         <v>111</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38">
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35">
         <v>123</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29">
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26">
         <v>321</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="38">
+      <c r="O9" s="33"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35">
         <v>345</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="29">
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="26">
         <v>999</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/import/201807_import.xlsx
+++ b/import/201807_import.xlsx
@@ -731,7 +731,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,6 +754,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7660,64 +7662,64 @@
       <c r="B2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7725,56 +7727,56 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="35">
         <v>1</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>180</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>211</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>195</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="28">
+      <c r="F3" s="20"/>
+      <c r="G3" s="27">
         <v>180</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <v>211</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <v>195</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="19">
+      <c r="J3" s="29"/>
+      <c r="K3" s="18">
         <v>320</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>211</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>195</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="35">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>180</v>
       </c>
       <c r="D4" s="12">
@@ -7783,8 +7785,8 @@
       <c r="E4" s="12">
         <v>195</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="31">
+      <c r="F4" s="22"/>
+      <c r="G4" s="30">
         <v>180</v>
       </c>
       <c r="H4" s="13">
@@ -7793,8 +7795,8 @@
       <c r="I4" s="13">
         <v>195</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="22">
+      <c r="J4" s="31"/>
+      <c r="K4" s="21">
         <v>320</v>
       </c>
       <c r="L4" s="12">
@@ -7803,20 +7805,20 @@
       <c r="M4" s="12">
         <v>195</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="31"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="22"/>
-      <c r="V4" s="23"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="30"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="21"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>180</v>
       </c>
       <c r="D5" s="12">
@@ -7825,8 +7827,8 @@
       <c r="E5" s="12">
         <v>195</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="31">
+      <c r="F5" s="22"/>
+      <c r="G5" s="30">
         <v>180</v>
       </c>
       <c r="H5" s="13">
@@ -7835,22 +7837,22 @@
       <c r="I5" s="13">
         <v>195</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="22"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="31"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="22"/>
-      <c r="V5" s="23"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="30"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="21"/>
+      <c r="V5" s="22"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="35">
         <v>1</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>180</v>
       </c>
       <c r="D6" s="12">
@@ -7859,8 +7861,8 @@
       <c r="E6" s="12">
         <v>195</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="31">
+      <c r="F6" s="22"/>
+      <c r="G6" s="30">
         <v>180</v>
       </c>
       <c r="H6" s="13">
@@ -7869,44 +7871,28 @@
       <c r="I6" s="13">
         <v>195</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="31"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="22"/>
-      <c r="V6" s="23"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="30"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="21"/>
+      <c r="V6" s="22"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="35">
         <v>3</v>
       </c>
-      <c r="C7" s="22">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12">
-        <v>211</v>
-      </c>
-      <c r="E7" s="12">
-        <v>195</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="31">
-        <v>50</v>
-      </c>
-      <c r="H7" s="13">
-        <v>211</v>
-      </c>
-      <c r="I7" s="13">
-        <v>195</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="22"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="31">
+      <c r="C7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="30">
         <v>50</v>
       </c>
       <c r="P7" s="13">
@@ -7915,40 +7901,24 @@
       <c r="Q7" s="13">
         <v>195</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="22"/>
-      <c r="V7" s="23"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="21"/>
+      <c r="V7" s="22"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="35">
         <v>3</v>
       </c>
-      <c r="C8" s="22">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12">
-        <v>211</v>
-      </c>
-      <c r="E8" s="12">
-        <v>195</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="31">
-        <v>50</v>
-      </c>
-      <c r="H8" s="13">
-        <v>211</v>
-      </c>
-      <c r="I8" s="13">
-        <v>195</v>
-      </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="31">
+      <c r="C8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="30">
         <v>50</v>
       </c>
       <c r="P8" s="13">
@@ -7957,53 +7927,53 @@
       <c r="Q8" s="13">
         <v>195</v>
       </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="22"/>
-      <c r="V8" s="23"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="21"/>
+      <c r="V8" s="22"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="16">
-        <v>4</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26">
+      <c r="B9" s="35">
+        <v>4</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25">
         <v>111</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35">
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34">
         <v>123</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26">
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25">
         <v>321</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="35">
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34">
         <v>345</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26">
+      <c r="S9" s="23"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="25">
         <v>999</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H17" s="14"/>

--- a/import/201807_import.xlsx
+++ b/import/201807_import.xlsx
@@ -7597,7 +7597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7942,31 +7944,31 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="25">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="34">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="25">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="34">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="25">
-        <v>999</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/import/201807_import.xlsx
+++ b/import/201807_import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>Anton Steblinkin</author>
   </authors>
   <commentList>
-    <comment ref="I54" authorId="0" shapeId="0">
+    <comment ref="J54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="113">
   <si>
     <t>ПОШ (уборка/выпуск)</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Qo</t>
-  </si>
-  <si>
-    <t>Группа</t>
   </si>
   <si>
     <t>Руление</t>
@@ -403,6 +400,21 @@
   </si>
   <si>
     <t>Коэффициент понижения оборотов</t>
+  </si>
+  <si>
+    <t>Группа потребителей</t>
+  </si>
+  <si>
+    <t>Зона аппарата</t>
+  </si>
+  <si>
+    <t>Механизация</t>
+  </si>
+  <si>
+    <t>Двигатель</t>
+  </si>
+  <si>
+    <t>Система приводов</t>
   </si>
 </sst>
 </file>
@@ -700,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -765,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,16 +1382,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH63"/>
+  <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -1402,7 +1420,7 @@
     <col min="36" max="36" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1415,89 +1433,92 @@
       <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>101</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1516,33 +1537,30 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="N2">
-        <v>0</v>
+      <c r="M2" t="s">
+        <v>4</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>1.6</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
@@ -1574,11 +1592,11 @@
         <v>0</v>
       </c>
       <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>1</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -1594,8 +1612,11 @@
       <c r="AH2">
         <v>0</v>
       </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1614,9 +1635,6 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
       <c r="I3" t="s">
         <v>6</v>
       </c>
@@ -1624,19 +1642,19 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>0.5</v>
-      </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1675,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0.5</v>
@@ -1690,10 +1708,13 @@
         <v>0.5</v>
       </c>
       <c r="AH3">
+        <v>0.5</v>
+      </c>
+      <c r="AI3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1712,29 +1733,26 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
       <c r="L4" t="s">
         <v>4</v>
       </c>
-      <c r="N4">
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4">
         <v>1</v>
       </c>
-      <c r="O4">
-        <v>0.5</v>
-      </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1773,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0.5</v>
@@ -1788,10 +1806,13 @@
         <v>0.5</v>
       </c>
       <c r="AH4">
+        <v>0.5</v>
+      </c>
+      <c r="AI4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1810,23 +1831,23 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
-        <v>6</v>
+      <c r="G5" t="s">
+        <v>110</v>
       </c>
       <c r="I5" t="s">
         <v>6</v>
       </c>
       <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
-        <v>4</v>
-      </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
-      <c r="N5">
-        <v>0</v>
+      <c r="M5" t="s">
+        <v>4</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1838,11 +1859,11 @@
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>1</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
         <v>0</v>
       </c>
@@ -1865,11 +1886,11 @@
         <v>0</v>
       </c>
       <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>1</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
       <c r="AC5">
         <v>0</v>
       </c>
@@ -1888,8 +1909,11 @@
       <c r="AH5">
         <v>0</v>
       </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1908,23 +1932,23 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
+      <c r="G6" t="s">
+        <v>110</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
       </c>
       <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
       <c r="L6" t="s">
         <v>4</v>
       </c>
-      <c r="N6">
-        <v>0</v>
+      <c r="M6" t="s">
+        <v>4</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1936,11 +1960,11 @@
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
         <v>0</v>
       </c>
@@ -1963,11 +1987,11 @@
         <v>0</v>
       </c>
       <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>1</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
       <c r="AC6">
         <v>0</v>
       </c>
@@ -1986,8 +2010,11 @@
       <c r="AH6">
         <v>0</v>
       </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2006,23 +2033,23 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>6</v>
+      <c r="G7" t="s">
+        <v>110</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
         <v>3</v>
       </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
       <c r="L7" t="s">
         <v>4</v>
       </c>
-      <c r="N7">
-        <v>0</v>
+      <c r="M7" t="s">
+        <v>4</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2034,11 +2061,11 @@
         <v>0</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>1</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7">
         <v>0</v>
       </c>
@@ -2061,11 +2088,11 @@
         <v>0</v>
       </c>
       <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>1</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
       <c r="AC7">
         <v>0</v>
       </c>
@@ -2084,8 +2111,11 @@
       <c r="AH7">
         <v>0</v>
       </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2104,23 +2134,23 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
-        <v>2</v>
+      <c r="G8" t="s">
+        <v>110</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
       </c>
       <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" t="s">
         <v>4</v>
       </c>
-      <c r="N8">
-        <v>0</v>
+      <c r="M8" t="s">
+        <v>4</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2132,11 +2162,11 @@
         <v>0</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>1</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
         <v>0</v>
       </c>
@@ -2159,11 +2189,11 @@
         <v>0</v>
       </c>
       <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>1</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
         <v>0</v>
       </c>
@@ -2182,8 +2212,11 @@
       <c r="AH8">
         <v>0</v>
       </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2202,9 +2235,6 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" t="s">
         <v>3</v>
       </c>
@@ -2212,23 +2242,23 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
         <v>4</v>
       </c>
-      <c r="N9">
-        <v>0</v>
+      <c r="M9" t="s">
+        <v>4</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>1.2569832402234637</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
         <v>0</v>
       </c>
@@ -2260,11 +2290,11 @@
         <v>0</v>
       </c>
       <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <v>1</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
       <c r="AD9">
         <v>0</v>
       </c>
@@ -2280,8 +2310,11 @@
       <c r="AH9">
         <v>0</v>
       </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2300,33 +2333,30 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
       <c r="I10" t="s">
         <v>2</v>
       </c>
       <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
         <v>6</v>
       </c>
-      <c r="K10" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" t="s">
         <v>4</v>
       </c>
-      <c r="N10">
-        <v>0</v>
+      <c r="M10" t="s">
+        <v>4</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>1.2569832402234637</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
         <v>0</v>
       </c>
@@ -2358,11 +2388,11 @@
         <v>0</v>
       </c>
       <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>1</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
         <v>0</v>
       </c>
@@ -2378,8 +2408,11 @@
       <c r="AH10">
         <v>0</v>
       </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2398,33 +2431,30 @@
       <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
         <v>6</v>
       </c>
-      <c r="K11" t="s">
-        <v>4</v>
-      </c>
       <c r="L11" t="s">
         <v>4</v>
       </c>
-      <c r="N11">
-        <v>0</v>
+      <c r="M11" t="s">
+        <v>4</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>1.2569832402234637</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
         <v>0</v>
       </c>
@@ -2456,11 +2486,11 @@
         <v>0</v>
       </c>
       <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
         <v>1</v>
       </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
       <c r="AD11">
         <v>0</v>
       </c>
@@ -2476,8 +2506,11 @@
       <c r="AH11">
         <v>0</v>
       </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2496,9 +2529,6 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" t="s">
         <v>3</v>
       </c>
@@ -2506,16 +2536,16 @@
         <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12" t="s">
         <v>4</v>
       </c>
-      <c r="N12">
-        <v>0.5</v>
+      <c r="M12" t="s">
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2566,16 +2596,19 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <v>1</v>
       </c>
       <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2594,9 +2627,6 @@
       <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
       <c r="I13" t="s">
         <v>6</v>
       </c>
@@ -2604,16 +2634,16 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
         <v>4</v>
       </c>
-      <c r="N13">
-        <v>0.5</v>
+      <c r="M13" t="s">
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2664,16 +2694,19 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>1</v>
       </c>
       <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2692,26 +2725,23 @@
       <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
-        <v>2</v>
-      </c>
       <c r="I14" t="s">
         <v>2</v>
       </c>
       <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
         <v>6</v>
       </c>
-      <c r="K14" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" t="s">
         <v>4</v>
       </c>
-      <c r="N14">
-        <v>0.5</v>
+      <c r="M14" t="s">
+        <v>4</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2762,16 +2792,19 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14">
         <v>1</v>
       </c>
       <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2790,26 +2823,23 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
-        <v>2</v>
-      </c>
       <c r="I15" t="s">
         <v>2</v>
       </c>
       <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
         <v>3</v>
       </c>
-      <c r="K15" t="s">
-        <v>4</v>
-      </c>
       <c r="L15" t="s">
         <v>4</v>
       </c>
-      <c r="N15">
-        <v>0.5</v>
+      <c r="M15" t="s">
+        <v>4</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2860,16 +2890,19 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>1</v>
       </c>
       <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2888,9 +2921,6 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="H16" t="s">
-        <v>3</v>
-      </c>
       <c r="I16" t="s">
         <v>3</v>
       </c>
@@ -2898,16 +2928,16 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" t="s">
         <v>4</v>
       </c>
-      <c r="N16">
-        <v>0.5</v>
+      <c r="M16" t="s">
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2958,16 +2988,19 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16">
         <v>1</v>
       </c>
       <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2986,9 +3019,6 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
       <c r="I17" t="s">
         <v>6</v>
       </c>
@@ -2996,16 +3026,16 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L17" t="s">
         <v>4</v>
       </c>
-      <c r="N17">
-        <v>0.5</v>
+      <c r="M17" t="s">
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3056,16 +3086,19 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <v>1</v>
       </c>
       <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3084,26 +3117,26 @@
       <c r="F18" t="s">
         <v>24</v>
       </c>
-      <c r="H18" t="s">
-        <v>11</v>
+      <c r="G18" t="s">
+        <v>112</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
       </c>
       <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
         <v>3</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>25</v>
       </c>
-      <c r="L18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>0.1</v>
+      <c r="M18" t="s">
+        <v>4</v>
       </c>
       <c r="O18">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P18">
         <v>0.5</v>
@@ -3112,38 +3145,38 @@
         <v>0.5</v>
       </c>
       <c r="R18">
+        <v>0.5</v>
+      </c>
+      <c r="S18">
         <v>0.3</v>
       </c>
-      <c r="S18">
-        <v>0.1</v>
-      </c>
       <c r="T18">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U18">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V18">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W18">
         <v>0.5</v>
       </c>
       <c r="X18">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y18">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z18">
         <v>0.5</v>
       </c>
       <c r="AA18">
+        <v>0.5</v>
+      </c>
+      <c r="AB18">
         <v>0.3</v>
       </c>
-      <c r="AB18">
-        <v>0.5</v>
-      </c>
       <c r="AC18">
         <v>0.5</v>
       </c>
@@ -3160,10 +3193,13 @@
         <v>0.5</v>
       </c>
       <c r="AH18">
+        <v>0.5</v>
+      </c>
+      <c r="AI18">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3182,26 +3218,26 @@
       <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="H19" t="s">
-        <v>2</v>
+      <c r="G19" t="s">
+        <v>112</v>
       </c>
       <c r="I19" t="s">
         <v>2</v>
       </c>
       <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>25</v>
       </c>
-      <c r="L19" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19">
-        <v>0.1</v>
+      <c r="M19" t="s">
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P19">
         <v>0.5</v>
@@ -3210,38 +3246,38 @@
         <v>0.5</v>
       </c>
       <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
         <v>0.3</v>
       </c>
-      <c r="S19">
-        <v>0.1</v>
-      </c>
       <c r="T19">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U19">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V19">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W19">
         <v>0.5</v>
       </c>
       <c r="X19">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y19">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z19">
         <v>0.5</v>
       </c>
       <c r="AA19">
+        <v>0.5</v>
+      </c>
+      <c r="AB19">
         <v>0.3</v>
       </c>
-      <c r="AB19">
-        <v>0.5</v>
-      </c>
       <c r="AC19">
         <v>0.5</v>
       </c>
@@ -3258,10 +3294,13 @@
         <v>0.5</v>
       </c>
       <c r="AH19">
+        <v>0.5</v>
+      </c>
+      <c r="AI19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -3280,26 +3319,26 @@
       <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="H20" t="s">
-        <v>6</v>
+      <c r="G20" t="s">
+        <v>112</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
       </c>
       <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
         <v>3</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>28</v>
       </c>
-      <c r="L20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>0.1</v>
+      <c r="M20" t="s">
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P20">
         <v>0.5</v>
@@ -3308,38 +3347,38 @@
         <v>0.5</v>
       </c>
       <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
         <v>0.3</v>
       </c>
-      <c r="S20">
-        <v>0.1</v>
-      </c>
       <c r="T20">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U20">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V20">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W20">
         <v>0.5</v>
       </c>
       <c r="X20">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y20">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z20">
         <v>0.5</v>
       </c>
       <c r="AA20">
+        <v>0.5</v>
+      </c>
+      <c r="AB20">
         <v>0.3</v>
       </c>
-      <c r="AB20">
-        <v>0.5</v>
-      </c>
       <c r="AC20">
         <v>0.5</v>
       </c>
@@ -3356,10 +3395,13 @@
         <v>0.5</v>
       </c>
       <c r="AH20">
+        <v>0.5</v>
+      </c>
+      <c r="AI20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3378,26 +3420,26 @@
       <c r="F21" t="s">
         <v>24</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" t="s">
         <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
       </c>
       <c r="J21" t="s">
         <v>6</v>
       </c>
       <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" t="s">
         <v>28</v>
       </c>
-      <c r="L21" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21">
-        <v>0.1</v>
+      <c r="M21" t="s">
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P21">
         <v>0.5</v>
@@ -3406,38 +3448,38 @@
         <v>0.5</v>
       </c>
       <c r="R21">
+        <v>0.5</v>
+      </c>
+      <c r="S21">
         <v>0.3</v>
       </c>
-      <c r="S21">
-        <v>0.1</v>
-      </c>
       <c r="T21">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U21">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V21">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W21">
         <v>0.5</v>
       </c>
       <c r="X21">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y21">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z21">
         <v>0.5</v>
       </c>
       <c r="AA21">
+        <v>0.5</v>
+      </c>
+      <c r="AB21">
         <v>0.3</v>
       </c>
-      <c r="AB21">
-        <v>0.5</v>
-      </c>
       <c r="AC21">
         <v>0.5</v>
       </c>
@@ -3454,10 +3496,13 @@
         <v>0.5</v>
       </c>
       <c r="AH21">
+        <v>0.5</v>
+      </c>
+      <c r="AI21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3476,11 +3521,11 @@
       <c r="F22" t="s">
         <v>24</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" t="s">
         <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>31</v>
       </c>
       <c r="J22" t="s">
         <v>31</v>
@@ -3491,11 +3536,11 @@
       <c r="L22" t="s">
         <v>31</v>
       </c>
-      <c r="N22">
-        <v>0.1</v>
+      <c r="M22" t="s">
+        <v>31</v>
       </c>
       <c r="O22">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P22">
         <v>0.5</v>
@@ -3504,38 +3549,38 @@
         <v>0.5</v>
       </c>
       <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
         <v>0.3</v>
       </c>
-      <c r="S22">
-        <v>0.1</v>
-      </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U22">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V22">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W22">
         <v>0.5</v>
       </c>
       <c r="X22">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y22">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z22">
         <v>0.5</v>
       </c>
       <c r="AA22">
+        <v>0.5</v>
+      </c>
+      <c r="AB22">
         <v>0.3</v>
       </c>
-      <c r="AB22">
-        <v>0.5</v>
-      </c>
       <c r="AC22">
         <v>0.5</v>
       </c>
@@ -3552,10 +3597,13 @@
         <v>0.5</v>
       </c>
       <c r="AH22">
+        <v>0.5</v>
+      </c>
+      <c r="AI22">
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3574,11 +3622,11 @@
       <c r="F23" t="s">
         <v>24</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" t="s">
         <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>31</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -3589,11 +3637,11 @@
       <c r="L23" t="s">
         <v>31</v>
       </c>
-      <c r="N23">
-        <v>0.1</v>
+      <c r="M23" t="s">
+        <v>31</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P23">
         <v>0.5</v>
@@ -3602,38 +3650,38 @@
         <v>0.5</v>
       </c>
       <c r="R23">
+        <v>0.5</v>
+      </c>
+      <c r="S23">
         <v>0.3</v>
       </c>
-      <c r="S23">
-        <v>0.1</v>
-      </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U23">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V23">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W23">
         <v>0.5</v>
       </c>
       <c r="X23">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y23">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z23">
         <v>0.5</v>
       </c>
       <c r="AA23">
+        <v>0.5</v>
+      </c>
+      <c r="AB23">
         <v>0.3</v>
       </c>
-      <c r="AB23">
-        <v>0.5</v>
-      </c>
       <c r="AC23">
         <v>0.5</v>
       </c>
@@ -3650,10 +3698,13 @@
         <v>0.5</v>
       </c>
       <c r="AH23">
+        <v>0.5</v>
+      </c>
+      <c r="AI23">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3672,26 +3723,26 @@
       <c r="F24" t="s">
         <v>24</v>
       </c>
-      <c r="H24" t="s">
-        <v>3</v>
+      <c r="G24" t="s">
+        <v>112</v>
       </c>
       <c r="I24" t="s">
         <v>3</v>
       </c>
       <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
         <v>6</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>28</v>
       </c>
-      <c r="L24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
+      <c r="M24" t="s">
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0.5</v>
@@ -3700,38 +3751,38 @@
         <v>0.5</v>
       </c>
       <c r="R24">
+        <v>0.5</v>
+      </c>
+      <c r="S24">
         <v>0.3</v>
       </c>
-      <c r="S24">
-        <v>0.1</v>
-      </c>
       <c r="T24">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U24">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V24">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W24">
         <v>0.5</v>
       </c>
       <c r="X24">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y24">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z24">
         <v>0.5</v>
       </c>
       <c r="AA24">
+        <v>0.5</v>
+      </c>
+      <c r="AB24">
         <v>0.3</v>
       </c>
-      <c r="AB24">
-        <v>0.5</v>
-      </c>
       <c r="AC24">
         <v>0.5</v>
       </c>
@@ -3748,10 +3799,13 @@
         <v>0.5</v>
       </c>
       <c r="AH24">
+        <v>0.5</v>
+      </c>
+      <c r="AI24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3770,11 +3824,11 @@
       <c r="F25" t="s">
         <v>24</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" t="s">
         <v>2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>31</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -3785,11 +3839,11 @@
       <c r="L25" t="s">
         <v>31</v>
       </c>
-      <c r="N25">
-        <v>0</v>
+      <c r="M25" t="s">
+        <v>31</v>
       </c>
       <c r="O25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0.5</v>
@@ -3798,38 +3852,38 @@
         <v>0.5</v>
       </c>
       <c r="R25">
+        <v>0.5</v>
+      </c>
+      <c r="S25">
         <v>0.3</v>
       </c>
-      <c r="S25">
-        <v>0.1</v>
-      </c>
       <c r="T25">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U25">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V25">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W25">
         <v>0.5</v>
       </c>
       <c r="X25">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y25">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z25">
         <v>0.5</v>
       </c>
       <c r="AA25">
+        <v>0.5</v>
+      </c>
+      <c r="AB25">
         <v>0.3</v>
       </c>
-      <c r="AB25">
-        <v>0.5</v>
-      </c>
       <c r="AC25">
         <v>0.5</v>
       </c>
@@ -3846,10 +3900,13 @@
         <v>0.5</v>
       </c>
       <c r="AH25">
+        <v>0.5</v>
+      </c>
+      <c r="AI25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3868,26 +3925,26 @@
       <c r="F26" t="s">
         <v>24</v>
       </c>
-      <c r="H26" t="s">
-        <v>6</v>
+      <c r="G26" t="s">
+        <v>112</v>
       </c>
       <c r="I26" t="s">
         <v>6</v>
       </c>
       <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" t="s">
         <v>3</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>25</v>
       </c>
-      <c r="L26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
+      <c r="M26" t="s">
+        <v>4</v>
       </c>
       <c r="O26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0.5</v>
@@ -3896,38 +3953,38 @@
         <v>0.5</v>
       </c>
       <c r="R26">
+        <v>0.5</v>
+      </c>
+      <c r="S26">
         <v>0.3</v>
       </c>
-      <c r="S26">
-        <v>0.1</v>
-      </c>
       <c r="T26">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U26">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V26">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W26">
         <v>0.5</v>
       </c>
       <c r="X26">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y26">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z26">
         <v>0.5</v>
       </c>
       <c r="AA26">
+        <v>0.5</v>
+      </c>
+      <c r="AB26">
         <v>0.3</v>
       </c>
-      <c r="AB26">
-        <v>0.5</v>
-      </c>
       <c r="AC26">
         <v>0.5</v>
       </c>
@@ -3944,10 +4001,13 @@
         <v>0.5</v>
       </c>
       <c r="AH26">
+        <v>0.5</v>
+      </c>
+      <c r="AI26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3966,11 +4026,11 @@
       <c r="F27" t="s">
         <v>24</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" t="s">
         <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>31</v>
       </c>
       <c r="J27" t="s">
         <v>31</v>
@@ -3981,11 +4041,11 @@
       <c r="L27" t="s">
         <v>31</v>
       </c>
-      <c r="N27">
-        <v>0</v>
+      <c r="M27" t="s">
+        <v>31</v>
       </c>
       <c r="O27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0.5</v>
@@ -3994,38 +4054,38 @@
         <v>0.5</v>
       </c>
       <c r="R27">
+        <v>0.5</v>
+      </c>
+      <c r="S27">
         <v>0.3</v>
       </c>
-      <c r="S27">
-        <v>0.1</v>
-      </c>
       <c r="T27">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U27">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V27">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W27">
         <v>0.5</v>
       </c>
       <c r="X27">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y27">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z27">
         <v>0.5</v>
       </c>
       <c r="AA27">
+        <v>0.5</v>
+      </c>
+      <c r="AB27">
         <v>0.3</v>
       </c>
-      <c r="AB27">
-        <v>0.5</v>
-      </c>
       <c r="AC27">
         <v>0.5</v>
       </c>
@@ -4042,10 +4102,13 @@
         <v>0.5</v>
       </c>
       <c r="AH27">
+        <v>0.5</v>
+      </c>
+      <c r="AI27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -4064,11 +4127,11 @@
       <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" t="s">
         <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>31</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
@@ -4079,11 +4142,11 @@
       <c r="L28" t="s">
         <v>31</v>
       </c>
-      <c r="N28">
-        <v>0</v>
+      <c r="M28" t="s">
+        <v>31</v>
       </c>
       <c r="O28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0.5</v>
@@ -4092,38 +4155,38 @@
         <v>0.5</v>
       </c>
       <c r="R28">
+        <v>0.5</v>
+      </c>
+      <c r="S28">
         <v>0.3</v>
       </c>
-      <c r="S28">
-        <v>0.1</v>
-      </c>
       <c r="T28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W28">
         <v>0.5</v>
       </c>
       <c r="X28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z28">
         <v>0.5</v>
       </c>
       <c r="AA28">
+        <v>0.5</v>
+      </c>
+      <c r="AB28">
         <v>0.3</v>
       </c>
-      <c r="AB28">
-        <v>0.5</v>
-      </c>
       <c r="AC28">
         <v>0.5</v>
       </c>
@@ -4140,10 +4203,13 @@
         <v>0.5</v>
       </c>
       <c r="AH28">
+        <v>0.5</v>
+      </c>
+      <c r="AI28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -4162,26 +4228,26 @@
       <c r="F29" t="s">
         <v>24</v>
       </c>
-      <c r="H29" t="s">
-        <v>2</v>
+      <c r="G29" t="s">
+        <v>112</v>
       </c>
       <c r="I29" t="s">
         <v>2</v>
       </c>
       <c r="J29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
         <v>6</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>28</v>
       </c>
-      <c r="L29" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
+      <c r="M29" t="s">
+        <v>4</v>
       </c>
       <c r="O29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>0.5</v>
@@ -4190,38 +4256,38 @@
         <v>0.5</v>
       </c>
       <c r="R29">
+        <v>0.5</v>
+      </c>
+      <c r="S29">
         <v>0.3</v>
       </c>
-      <c r="S29">
-        <v>0.1</v>
-      </c>
       <c r="T29">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V29">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W29">
         <v>0.5</v>
       </c>
       <c r="X29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y29">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z29">
         <v>0.5</v>
       </c>
       <c r="AA29">
+        <v>0.5</v>
+      </c>
+      <c r="AB29">
         <v>0.3</v>
       </c>
-      <c r="AB29">
-        <v>0.5</v>
-      </c>
       <c r="AC29">
         <v>0.5</v>
       </c>
@@ -4238,10 +4304,13 @@
         <v>0.5</v>
       </c>
       <c r="AH29">
+        <v>0.5</v>
+      </c>
+      <c r="AI29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -4260,11 +4329,11 @@
       <c r="F30" t="s">
         <v>24</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" t="s">
         <v>3</v>
-      </c>
-      <c r="I30" t="s">
-        <v>31</v>
       </c>
       <c r="J30" t="s">
         <v>31</v>
@@ -4275,11 +4344,11 @@
       <c r="L30" t="s">
         <v>31</v>
       </c>
-      <c r="N30">
-        <v>0</v>
+      <c r="M30" t="s">
+        <v>31</v>
       </c>
       <c r="O30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0.5</v>
@@ -4288,38 +4357,38 @@
         <v>0.5</v>
       </c>
       <c r="R30">
+        <v>0.5</v>
+      </c>
+      <c r="S30">
         <v>0.3</v>
       </c>
-      <c r="S30">
-        <v>0.1</v>
-      </c>
       <c r="T30">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U30">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V30">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W30">
         <v>0.5</v>
       </c>
       <c r="X30">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y30">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z30">
         <v>0.5</v>
       </c>
       <c r="AA30">
+        <v>0.5</v>
+      </c>
+      <c r="AB30">
         <v>0.3</v>
       </c>
-      <c r="AB30">
-        <v>0.5</v>
-      </c>
       <c r="AC30">
         <v>0.5</v>
       </c>
@@ -4336,10 +4405,13 @@
         <v>0.5</v>
       </c>
       <c r="AH30">
+        <v>0.5</v>
+      </c>
+      <c r="AI30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -4358,26 +4430,26 @@
       <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="H31" t="s">
-        <v>11</v>
+      <c r="G31" t="s">
+        <v>112</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
       </c>
       <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
         <v>3</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>25</v>
       </c>
-      <c r="L31" t="s">
-        <v>4</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
+      <c r="M31" t="s">
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>0.5</v>
@@ -4386,38 +4458,38 @@
         <v>0.5</v>
       </c>
       <c r="R31">
+        <v>0.5</v>
+      </c>
+      <c r="S31">
         <v>0.3</v>
       </c>
-      <c r="S31">
-        <v>0.1</v>
-      </c>
       <c r="T31">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U31">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V31">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W31">
         <v>0.5</v>
       </c>
       <c r="X31">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y31">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z31">
         <v>0.5</v>
       </c>
       <c r="AA31">
+        <v>0.5</v>
+      </c>
+      <c r="AB31">
         <v>0.3</v>
       </c>
-      <c r="AB31">
-        <v>0.5</v>
-      </c>
       <c r="AC31">
         <v>0.5</v>
       </c>
@@ -4434,10 +4506,13 @@
         <v>0.5</v>
       </c>
       <c r="AH31">
+        <v>0.5</v>
+      </c>
+      <c r="AI31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -4456,26 +4531,26 @@
       <c r="F32" t="s">
         <v>9</v>
       </c>
-      <c r="H32" t="s">
-        <v>6</v>
+      <c r="G32" t="s">
+        <v>110</v>
       </c>
       <c r="I32" t="s">
         <v>6</v>
       </c>
       <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s">
         <v>3</v>
       </c>
-      <c r="K32" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" t="s">
         <v>4</v>
       </c>
-      <c r="N32">
-        <v>0</v>
+      <c r="M32" t="s">
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <v>0.5</v>
@@ -4484,38 +4559,38 @@
         <v>0.5</v>
       </c>
       <c r="R32">
+        <v>0.5</v>
+      </c>
+      <c r="S32">
         <v>0.3</v>
       </c>
-      <c r="S32">
-        <v>0.1</v>
-      </c>
       <c r="T32">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U32">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V32">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W32">
         <v>0.5</v>
       </c>
       <c r="X32">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y32">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z32">
         <v>0.5</v>
       </c>
       <c r="AA32">
+        <v>0.5</v>
+      </c>
+      <c r="AB32">
         <v>0.3</v>
       </c>
-      <c r="AB32">
-        <v>0.5</v>
-      </c>
       <c r="AC32">
         <v>0.5</v>
       </c>
@@ -4532,10 +4607,13 @@
         <v>0.5</v>
       </c>
       <c r="AH32">
+        <v>0.5</v>
+      </c>
+      <c r="AI32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4554,11 +4632,11 @@
       <c r="F33" t="s">
         <v>9</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" t="s">
         <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>31</v>
       </c>
       <c r="J33" t="s">
         <v>31</v>
@@ -4569,11 +4647,11 @@
       <c r="L33" t="s">
         <v>31</v>
       </c>
-      <c r="N33">
-        <v>0</v>
+      <c r="M33" t="s">
+        <v>31</v>
       </c>
       <c r="O33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0.5</v>
@@ -4582,38 +4660,38 @@
         <v>0.5</v>
       </c>
       <c r="R33">
+        <v>0.5</v>
+      </c>
+      <c r="S33">
         <v>0.3</v>
       </c>
-      <c r="S33">
-        <v>0.1</v>
-      </c>
       <c r="T33">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U33">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V33">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W33">
         <v>0.5</v>
       </c>
       <c r="X33">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y33">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z33">
         <v>0.5</v>
       </c>
       <c r="AA33">
+        <v>0.5</v>
+      </c>
+      <c r="AB33">
         <v>0.3</v>
       </c>
-      <c r="AB33">
-        <v>0.5</v>
-      </c>
       <c r="AC33">
         <v>0.5</v>
       </c>
@@ -4630,10 +4708,13 @@
         <v>0.5</v>
       </c>
       <c r="AH33">
+        <v>0.5</v>
+      </c>
+      <c r="AI33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4652,26 +4733,26 @@
       <c r="F34" t="s">
         <v>9</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" t="s">
         <v>11</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>2</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>3</v>
       </c>
-      <c r="K34" t="s">
-        <v>4</v>
-      </c>
       <c r="L34" t="s">
         <v>4</v>
       </c>
-      <c r="N34">
-        <v>0</v>
+      <c r="M34" t="s">
+        <v>4</v>
       </c>
       <c r="O34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0.5</v>
@@ -4680,38 +4761,38 @@
         <v>0.5</v>
       </c>
       <c r="R34">
+        <v>0.5</v>
+      </c>
+      <c r="S34">
         <v>0.3</v>
       </c>
-      <c r="S34">
-        <v>0.1</v>
-      </c>
       <c r="T34">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U34">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V34">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W34">
         <v>0.5</v>
       </c>
       <c r="X34">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y34">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z34">
         <v>0.5</v>
       </c>
       <c r="AA34">
+        <v>0.5</v>
+      </c>
+      <c r="AB34">
         <v>0.3</v>
       </c>
-      <c r="AB34">
-        <v>0.5</v>
-      </c>
       <c r="AC34">
         <v>0.5</v>
       </c>
@@ -4728,10 +4809,13 @@
         <v>0.5</v>
       </c>
       <c r="AH34">
+        <v>0.5</v>
+      </c>
+      <c r="AI34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4750,26 +4834,26 @@
       <c r="F35" t="s">
         <v>9</v>
       </c>
-      <c r="H35" t="s">
-        <v>11</v>
+      <c r="G35" t="s">
+        <v>110</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
       </c>
       <c r="J35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
         <v>6</v>
       </c>
-      <c r="K35" t="s">
-        <v>4</v>
-      </c>
       <c r="L35" t="s">
         <v>4</v>
       </c>
-      <c r="N35">
-        <v>0</v>
+      <c r="M35" t="s">
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0.5</v>
@@ -4778,38 +4862,38 @@
         <v>0.5</v>
       </c>
       <c r="R35">
+        <v>0.5</v>
+      </c>
+      <c r="S35">
         <v>0.3</v>
       </c>
-      <c r="S35">
-        <v>0.1</v>
-      </c>
       <c r="T35">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U35">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V35">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W35">
         <v>0.5</v>
       </c>
       <c r="X35">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y35">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z35">
         <v>0.5</v>
       </c>
       <c r="AA35">
+        <v>0.5</v>
+      </c>
+      <c r="AB35">
         <v>0.3</v>
       </c>
-      <c r="AB35">
-        <v>0.5</v>
-      </c>
       <c r="AC35">
         <v>0.5</v>
       </c>
@@ -4826,10 +4910,13 @@
         <v>0.5</v>
       </c>
       <c r="AH35">
+        <v>0.5</v>
+      </c>
+      <c r="AI35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4848,11 +4935,11 @@
       <c r="F36" t="s">
         <v>9</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" t="s">
         <v>2</v>
-      </c>
-      <c r="I36" t="s">
-        <v>31</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
@@ -4863,11 +4950,11 @@
       <c r="L36" t="s">
         <v>31</v>
       </c>
-      <c r="N36">
-        <v>0</v>
+      <c r="M36" t="s">
+        <v>31</v>
       </c>
       <c r="O36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <v>0.5</v>
@@ -4876,38 +4963,38 @@
         <v>0.5</v>
       </c>
       <c r="R36">
+        <v>0.5</v>
+      </c>
+      <c r="S36">
         <v>0.3</v>
       </c>
-      <c r="S36">
-        <v>0.1</v>
-      </c>
       <c r="T36">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U36">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V36">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W36">
         <v>0.5</v>
       </c>
       <c r="X36">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y36">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z36">
         <v>0.5</v>
       </c>
       <c r="AA36">
+        <v>0.5</v>
+      </c>
+      <c r="AB36">
         <v>0.3</v>
       </c>
-      <c r="AB36">
-        <v>0.5</v>
-      </c>
       <c r="AC36">
         <v>0.5</v>
       </c>
@@ -4924,10 +5011,13 @@
         <v>0.5</v>
       </c>
       <c r="AH36">
+        <v>0.5</v>
+      </c>
+      <c r="AI36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4946,8 +5036,8 @@
       <c r="F37" t="s">
         <v>9</v>
       </c>
-      <c r="H37" t="s">
-        <v>6</v>
+      <c r="G37" t="s">
+        <v>110</v>
       </c>
       <c r="I37" t="s">
         <v>6</v>
@@ -4956,16 +5046,16 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L37" t="s">
         <v>4</v>
       </c>
-      <c r="N37">
-        <v>0</v>
+      <c r="M37" t="s">
+        <v>4</v>
       </c>
       <c r="O37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P37">
         <v>0.5</v>
@@ -4974,38 +5064,38 @@
         <v>0.5</v>
       </c>
       <c r="R37">
+        <v>0.5</v>
+      </c>
+      <c r="S37">
         <v>0.3</v>
       </c>
-      <c r="S37">
-        <v>0.1</v>
-      </c>
       <c r="T37">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U37">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V37">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W37">
         <v>0.5</v>
       </c>
       <c r="X37">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y37">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z37">
         <v>0.5</v>
       </c>
       <c r="AA37">
+        <v>0.5</v>
+      </c>
+      <c r="AB37">
         <v>0.3</v>
       </c>
-      <c r="AB37">
-        <v>0.5</v>
-      </c>
       <c r="AC37">
         <v>0.5</v>
       </c>
@@ -5022,10 +5112,13 @@
         <v>0.5</v>
       </c>
       <c r="AH37">
+        <v>0.5</v>
+      </c>
+      <c r="AI37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -5044,26 +5137,26 @@
       <c r="F38" t="s">
         <v>9</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" t="s">
         <v>2</v>
-      </c>
-      <c r="I38" t="s">
-        <v>3</v>
       </c>
       <c r="J38" t="s">
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L38" t="s">
         <v>4</v>
       </c>
-      <c r="N38">
-        <v>0</v>
+      <c r="M38" t="s">
+        <v>4</v>
       </c>
       <c r="O38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0.5</v>
@@ -5072,38 +5165,38 @@
         <v>0.5</v>
       </c>
       <c r="R38">
+        <v>0.5</v>
+      </c>
+      <c r="S38">
         <v>0.3</v>
       </c>
-      <c r="S38">
-        <v>0.1</v>
-      </c>
       <c r="T38">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U38">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V38">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W38">
         <v>0.5</v>
       </c>
       <c r="X38">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y38">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z38">
         <v>0.5</v>
       </c>
       <c r="AA38">
+        <v>0.5</v>
+      </c>
+      <c r="AB38">
         <v>0.3</v>
       </c>
-      <c r="AB38">
-        <v>0.5</v>
-      </c>
       <c r="AC38">
         <v>0.5</v>
       </c>
@@ -5120,10 +5213,13 @@
         <v>0.5</v>
       </c>
       <c r="AH38">
+        <v>0.5</v>
+      </c>
+      <c r="AI38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -5142,11 +5238,11 @@
       <c r="F39" t="s">
         <v>9</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" t="s">
         <v>6</v>
-      </c>
-      <c r="I39" t="s">
-        <v>31</v>
       </c>
       <c r="J39" t="s">
         <v>31</v>
@@ -5157,11 +5253,11 @@
       <c r="L39" t="s">
         <v>31</v>
       </c>
-      <c r="N39">
-        <v>0</v>
+      <c r="M39" t="s">
+        <v>31</v>
       </c>
       <c r="O39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0.5</v>
@@ -5170,38 +5266,38 @@
         <v>0.5</v>
       </c>
       <c r="R39">
+        <v>0.5</v>
+      </c>
+      <c r="S39">
         <v>0.3</v>
       </c>
-      <c r="S39">
-        <v>0.1</v>
-      </c>
       <c r="T39">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U39">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V39">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W39">
         <v>0.5</v>
       </c>
       <c r="X39">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y39">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z39">
         <v>0.5</v>
       </c>
       <c r="AA39">
+        <v>0.5</v>
+      </c>
+      <c r="AB39">
         <v>0.3</v>
       </c>
-      <c r="AB39">
-        <v>0.5</v>
-      </c>
       <c r="AC39">
         <v>0.5</v>
       </c>
@@ -5218,10 +5314,13 @@
         <v>0.5</v>
       </c>
       <c r="AH39">
+        <v>0.5</v>
+      </c>
+      <c r="AI39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -5240,26 +5339,26 @@
       <c r="F40" t="s">
         <v>9</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" t="s">
         <v>3</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>2</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>3</v>
       </c>
-      <c r="K40" t="s">
-        <v>4</v>
-      </c>
       <c r="L40" t="s">
         <v>4</v>
       </c>
-      <c r="N40">
-        <v>0</v>
+      <c r="M40" t="s">
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0.5</v>
@@ -5268,38 +5367,38 @@
         <v>0.5</v>
       </c>
       <c r="R40">
+        <v>0.5</v>
+      </c>
+      <c r="S40">
         <v>0.3</v>
       </c>
-      <c r="S40">
-        <v>0.1</v>
-      </c>
       <c r="T40">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U40">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V40">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W40">
         <v>0.5</v>
       </c>
       <c r="X40">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y40">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z40">
         <v>0.5</v>
       </c>
       <c r="AA40">
+        <v>0.5</v>
+      </c>
+      <c r="AB40">
         <v>0.3</v>
       </c>
-      <c r="AB40">
-        <v>0.5</v>
-      </c>
       <c r="AC40">
         <v>0.5</v>
       </c>
@@ -5316,10 +5415,13 @@
         <v>0.5</v>
       </c>
       <c r="AH40">
+        <v>0.5</v>
+      </c>
+      <c r="AI40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -5338,26 +5440,26 @@
       <c r="F41" t="s">
         <v>9</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" t="s">
         <v>3</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>2</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>6</v>
       </c>
-      <c r="K41" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" t="s">
         <v>4</v>
       </c>
-      <c r="N41">
-        <v>0</v>
+      <c r="M41" t="s">
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P41">
         <v>0.5</v>
@@ -5366,38 +5468,38 @@
         <v>0.5</v>
       </c>
       <c r="R41">
+        <v>0.5</v>
+      </c>
+      <c r="S41">
         <v>0.3</v>
       </c>
-      <c r="S41">
-        <v>0.1</v>
-      </c>
       <c r="T41">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U41">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V41">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W41">
         <v>0.5</v>
       </c>
       <c r="X41">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y41">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z41">
         <v>0.5</v>
       </c>
       <c r="AA41">
+        <v>0.5</v>
+      </c>
+      <c r="AB41">
         <v>0.3</v>
       </c>
-      <c r="AB41">
-        <v>0.5</v>
-      </c>
       <c r="AC41">
         <v>0.5</v>
       </c>
@@ -5414,10 +5516,13 @@
         <v>0.5</v>
       </c>
       <c r="AH41">
+        <v>0.5</v>
+      </c>
+      <c r="AI41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -5436,11 +5541,11 @@
       <c r="F42" t="s">
         <v>9</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" t="s">
         <v>6</v>
-      </c>
-      <c r="I42" t="s">
-        <v>31</v>
       </c>
       <c r="J42" t="s">
         <v>31</v>
@@ -5451,11 +5556,11 @@
       <c r="L42" t="s">
         <v>31</v>
       </c>
-      <c r="N42">
-        <v>0</v>
+      <c r="M42" t="s">
+        <v>31</v>
       </c>
       <c r="O42">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0.5</v>
@@ -5464,38 +5569,38 @@
         <v>0.5</v>
       </c>
       <c r="R42">
+        <v>0.5</v>
+      </c>
+      <c r="S42">
         <v>0.3</v>
       </c>
-      <c r="S42">
-        <v>0.1</v>
-      </c>
       <c r="T42">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U42">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V42">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W42">
         <v>0.5</v>
       </c>
       <c r="X42">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y42">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z42">
         <v>0.5</v>
       </c>
       <c r="AA42">
+        <v>0.5</v>
+      </c>
+      <c r="AB42">
         <v>0.3</v>
       </c>
-      <c r="AB42">
-        <v>0.5</v>
-      </c>
       <c r="AC42">
         <v>0.5</v>
       </c>
@@ -5512,10 +5617,13 @@
         <v>0.5</v>
       </c>
       <c r="AH42">
+        <v>0.5</v>
+      </c>
+      <c r="AI42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -5534,26 +5642,26 @@
       <c r="F43" t="s">
         <v>9</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" t="s">
         <v>2</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>11</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>6</v>
       </c>
-      <c r="K43" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" t="s">
         <v>4</v>
       </c>
-      <c r="N43">
-        <v>0</v>
+      <c r="M43" t="s">
+        <v>4</v>
       </c>
       <c r="O43">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P43">
         <v>0.5</v>
@@ -5562,38 +5670,38 @@
         <v>0.5</v>
       </c>
       <c r="R43">
+        <v>0.5</v>
+      </c>
+      <c r="S43">
         <v>0.3</v>
       </c>
-      <c r="S43">
-        <v>0.1</v>
-      </c>
       <c r="T43">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U43">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V43">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W43">
         <v>0.5</v>
       </c>
       <c r="X43">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y43">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z43">
         <v>0.5</v>
       </c>
       <c r="AA43">
+        <v>0.5</v>
+      </c>
+      <c r="AB43">
         <v>0.3</v>
       </c>
-      <c r="AB43">
-        <v>0.5</v>
-      </c>
       <c r="AC43">
         <v>0.5</v>
       </c>
@@ -5610,10 +5718,13 @@
         <v>0.5</v>
       </c>
       <c r="AH43">
+        <v>0.5</v>
+      </c>
+      <c r="AI43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -5632,8 +5743,8 @@
       <c r="F44" t="s">
         <v>9</v>
       </c>
-      <c r="H44" t="s">
-        <v>6</v>
+      <c r="G44" t="s">
+        <v>110</v>
       </c>
       <c r="I44" t="s">
         <v>6</v>
@@ -5642,16 +5753,16 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L44" t="s">
         <v>4</v>
       </c>
-      <c r="N44">
-        <v>0</v>
+      <c r="M44" t="s">
+        <v>4</v>
       </c>
       <c r="O44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P44">
         <v>0.5</v>
@@ -5660,38 +5771,38 @@
         <v>0.5</v>
       </c>
       <c r="R44">
+        <v>0.5</v>
+      </c>
+      <c r="S44">
         <v>0.3</v>
       </c>
-      <c r="S44">
-        <v>0.1</v>
-      </c>
       <c r="T44">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U44">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V44">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W44">
         <v>0.5</v>
       </c>
       <c r="X44">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y44">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z44">
         <v>0.5</v>
       </c>
       <c r="AA44">
+        <v>0.5</v>
+      </c>
+      <c r="AB44">
         <v>0.3</v>
       </c>
-      <c r="AB44">
-        <v>0.5</v>
-      </c>
       <c r="AC44">
         <v>0.5</v>
       </c>
@@ -5708,10 +5819,13 @@
         <v>0.5</v>
       </c>
       <c r="AH44">
+        <v>0.5</v>
+      </c>
+      <c r="AI44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -5730,26 +5844,26 @@
       <c r="F45" t="s">
         <v>9</v>
       </c>
-      <c r="H45" t="s">
-        <v>2</v>
+      <c r="G45" t="s">
+        <v>110</v>
       </c>
       <c r="I45" t="s">
         <v>2</v>
       </c>
       <c r="J45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s">
         <v>3</v>
       </c>
-      <c r="K45" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" t="s">
         <v>4</v>
       </c>
-      <c r="N45">
-        <v>0</v>
+      <c r="M45" t="s">
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P45">
         <v>0.5</v>
@@ -5758,38 +5872,38 @@
         <v>0.5</v>
       </c>
       <c r="R45">
+        <v>0.5</v>
+      </c>
+      <c r="S45">
         <v>0.3</v>
       </c>
-      <c r="S45">
-        <v>0.1</v>
-      </c>
       <c r="T45">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U45">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V45">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W45">
         <v>0.5</v>
       </c>
       <c r="X45">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y45">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z45">
         <v>0.5</v>
       </c>
       <c r="AA45">
+        <v>0.5</v>
+      </c>
+      <c r="AB45">
         <v>0.3</v>
       </c>
-      <c r="AB45">
-        <v>0.5</v>
-      </c>
       <c r="AC45">
         <v>0.5</v>
       </c>
@@ -5806,10 +5920,13 @@
         <v>0.5</v>
       </c>
       <c r="AH45">
+        <v>0.5</v>
+      </c>
+      <c r="AI45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5828,14 +5945,14 @@
       <c r="F46" t="s">
         <v>9</v>
       </c>
-      <c r="H46" t="s">
-        <v>11</v>
+      <c r="G46" t="s">
+        <v>110</v>
       </c>
       <c r="I46" t="s">
         <v>11</v>
       </c>
       <c r="J46" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K46" t="s">
         <v>4</v>
@@ -5843,11 +5960,11 @@
       <c r="L46" t="s">
         <v>4</v>
       </c>
-      <c r="N46">
-        <v>0</v>
+      <c r="M46" t="s">
+        <v>4</v>
       </c>
       <c r="O46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P46">
         <v>0.5</v>
@@ -5856,38 +5973,38 @@
         <v>0.5</v>
       </c>
       <c r="R46">
+        <v>0.5</v>
+      </c>
+      <c r="S46">
         <v>0.3</v>
       </c>
-      <c r="S46">
-        <v>0.1</v>
-      </c>
       <c r="T46">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U46">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V46">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W46">
         <v>0.5</v>
       </c>
       <c r="X46">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y46">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z46">
         <v>0.5</v>
       </c>
       <c r="AA46">
+        <v>0.5</v>
+      </c>
+      <c r="AB46">
         <v>0.3</v>
       </c>
-      <c r="AB46">
-        <v>0.5</v>
-      </c>
       <c r="AC46">
         <v>0.5</v>
       </c>
@@ -5904,10 +6021,13 @@
         <v>0.5</v>
       </c>
       <c r="AH46">
+        <v>0.5</v>
+      </c>
+      <c r="AI46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -5926,14 +6046,14 @@
       <c r="F47" t="s">
         <v>9</v>
       </c>
-      <c r="H47" t="s">
-        <v>3</v>
+      <c r="G47" t="s">
+        <v>110</v>
       </c>
       <c r="I47" t="s">
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K47" t="s">
         <v>4</v>
@@ -5941,11 +6061,11 @@
       <c r="L47" t="s">
         <v>4</v>
       </c>
-      <c r="N47">
-        <v>0</v>
+      <c r="M47" t="s">
+        <v>4</v>
       </c>
       <c r="O47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>0.5</v>
@@ -5954,38 +6074,38 @@
         <v>0.5</v>
       </c>
       <c r="R47">
+        <v>0.5</v>
+      </c>
+      <c r="S47">
         <v>0.3</v>
       </c>
-      <c r="S47">
-        <v>0.1</v>
-      </c>
       <c r="T47">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U47">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V47">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W47">
         <v>0.5</v>
       </c>
       <c r="X47">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y47">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z47">
         <v>0.5</v>
       </c>
       <c r="AA47">
+        <v>0.5</v>
+      </c>
+      <c r="AB47">
         <v>0.3</v>
       </c>
-      <c r="AB47">
-        <v>0.5</v>
-      </c>
       <c r="AC47">
         <v>0.5</v>
       </c>
@@ -6002,10 +6122,13 @@
         <v>0.5</v>
       </c>
       <c r="AH47">
+        <v>0.5</v>
+      </c>
+      <c r="AI47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -6024,14 +6147,14 @@
       <c r="F48" t="s">
         <v>9</v>
       </c>
-      <c r="H48" t="s">
-        <v>3</v>
+      <c r="G48" t="s">
+        <v>110</v>
       </c>
       <c r="I48" t="s">
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K48" t="s">
         <v>4</v>
@@ -6039,11 +6162,11 @@
       <c r="L48" t="s">
         <v>4</v>
       </c>
-      <c r="N48">
-        <v>0</v>
+      <c r="M48" t="s">
+        <v>4</v>
       </c>
       <c r="O48">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P48">
         <v>0.5</v>
@@ -6052,38 +6175,38 @@
         <v>0.5</v>
       </c>
       <c r="R48">
+        <v>0.5</v>
+      </c>
+      <c r="S48">
         <v>0.3</v>
       </c>
-      <c r="S48">
-        <v>0.1</v>
-      </c>
       <c r="T48">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U48">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V48">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W48">
         <v>0.5</v>
       </c>
       <c r="X48">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y48">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z48">
         <v>0.5</v>
       </c>
       <c r="AA48">
+        <v>0.5</v>
+      </c>
+      <c r="AB48">
         <v>0.3</v>
       </c>
-      <c r="AB48">
-        <v>0.5</v>
-      </c>
       <c r="AC48">
         <v>0.5</v>
       </c>
@@ -6100,10 +6223,13 @@
         <v>0.5</v>
       </c>
       <c r="AH48">
+        <v>0.5</v>
+      </c>
+      <c r="AI48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -6122,14 +6248,14 @@
       <c r="F49" t="s">
         <v>9</v>
       </c>
-      <c r="H49" t="s">
-        <v>11</v>
+      <c r="G49" t="s">
+        <v>110</v>
       </c>
       <c r="I49" t="s">
         <v>11</v>
       </c>
       <c r="J49" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K49" t="s">
         <v>4</v>
@@ -6137,11 +6263,11 @@
       <c r="L49" t="s">
         <v>4</v>
       </c>
-      <c r="N49">
-        <v>0</v>
+      <c r="M49" t="s">
+        <v>4</v>
       </c>
       <c r="O49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P49">
         <v>0.5</v>
@@ -6150,38 +6276,38 @@
         <v>0.5</v>
       </c>
       <c r="R49">
+        <v>0.5</v>
+      </c>
+      <c r="S49">
         <v>0.3</v>
       </c>
-      <c r="S49">
-        <v>0.1</v>
-      </c>
       <c r="T49">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U49">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V49">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W49">
         <v>0.5</v>
       </c>
       <c r="X49">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y49">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z49">
         <v>0.5</v>
       </c>
       <c r="AA49">
+        <v>0.5</v>
+      </c>
+      <c r="AB49">
         <v>0.3</v>
       </c>
-      <c r="AB49">
-        <v>0.5</v>
-      </c>
       <c r="AC49">
         <v>0.5</v>
       </c>
@@ -6198,10 +6324,13 @@
         <v>0.5</v>
       </c>
       <c r="AH49">
+        <v>0.5</v>
+      </c>
+      <c r="AI49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -6220,26 +6349,26 @@
       <c r="F50" t="s">
         <v>9</v>
       </c>
-      <c r="H50" t="s">
-        <v>2</v>
+      <c r="G50" t="s">
+        <v>110</v>
       </c>
       <c r="I50" t="s">
         <v>2</v>
       </c>
       <c r="J50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s">
         <v>3</v>
       </c>
-      <c r="K50" t="s">
-        <v>4</v>
-      </c>
       <c r="L50" t="s">
         <v>4</v>
       </c>
-      <c r="N50">
-        <v>0</v>
+      <c r="M50" t="s">
+        <v>4</v>
       </c>
       <c r="O50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0.5</v>
@@ -6248,38 +6377,38 @@
         <v>0.5</v>
       </c>
       <c r="R50">
+        <v>0.5</v>
+      </c>
+      <c r="S50">
         <v>0.3</v>
       </c>
-      <c r="S50">
-        <v>0.1</v>
-      </c>
       <c r="T50">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U50">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V50">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W50">
         <v>0.5</v>
       </c>
       <c r="X50">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y50">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z50">
         <v>0.5</v>
       </c>
       <c r="AA50">
+        <v>0.5</v>
+      </c>
+      <c r="AB50">
         <v>0.3</v>
       </c>
-      <c r="AB50">
-        <v>0.5</v>
-      </c>
       <c r="AC50">
         <v>0.5</v>
       </c>
@@ -6296,10 +6425,13 @@
         <v>0.5</v>
       </c>
       <c r="AH50">
+        <v>0.5</v>
+      </c>
+      <c r="AI50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -6318,8 +6450,8 @@
       <c r="F51" t="s">
         <v>9</v>
       </c>
-      <c r="H51" t="s">
-        <v>6</v>
+      <c r="G51" t="s">
+        <v>110</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
@@ -6328,16 +6460,16 @@
         <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L51" t="s">
         <v>4</v>
       </c>
-      <c r="N51">
-        <v>0</v>
+      <c r="M51" t="s">
+        <v>4</v>
       </c>
       <c r="O51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P51">
         <v>0.5</v>
@@ -6346,38 +6478,38 @@
         <v>0.5</v>
       </c>
       <c r="R51">
+        <v>0.5</v>
+      </c>
+      <c r="S51">
         <v>0.3</v>
       </c>
-      <c r="S51">
-        <v>0.1</v>
-      </c>
       <c r="T51">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U51">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V51">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W51">
         <v>0.5</v>
       </c>
       <c r="X51">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y51">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z51">
         <v>0.5</v>
       </c>
       <c r="AA51">
+        <v>0.5</v>
+      </c>
+      <c r="AB51">
         <v>0.3</v>
       </c>
-      <c r="AB51">
-        <v>0.5</v>
-      </c>
       <c r="AC51">
         <v>0.5</v>
       </c>
@@ -6394,10 +6526,13 @@
         <v>0.5</v>
       </c>
       <c r="AH51">
+        <v>0.5</v>
+      </c>
+      <c r="AI51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -6416,14 +6551,14 @@
       <c r="F52" t="s">
         <v>24</v>
       </c>
-      <c r="H52" t="s">
-        <v>6</v>
+      <c r="G52" t="s">
+        <v>110</v>
       </c>
       <c r="I52" t="s">
         <v>6</v>
       </c>
       <c r="J52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K52" t="s">
         <v>4</v>
@@ -6431,11 +6566,11 @@
       <c r="L52" t="s">
         <v>4</v>
       </c>
-      <c r="N52">
-        <v>0</v>
+      <c r="M52" t="s">
+        <v>4</v>
       </c>
       <c r="O52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P52">
         <v>0.5</v>
@@ -6444,38 +6579,38 @@
         <v>0.5</v>
       </c>
       <c r="R52">
+        <v>0.5</v>
+      </c>
+      <c r="S52">
         <v>0.3</v>
       </c>
-      <c r="S52">
-        <v>0.5</v>
-      </c>
       <c r="T52">
         <v>0.5</v>
       </c>
       <c r="U52">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V52">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W52">
         <v>0.5</v>
       </c>
       <c r="X52">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y52">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z52">
         <v>0.5</v>
       </c>
       <c r="AA52">
+        <v>0.5</v>
+      </c>
+      <c r="AB52">
         <v>0.3</v>
       </c>
-      <c r="AB52">
-        <v>0.5</v>
-      </c>
       <c r="AC52">
         <v>0.5</v>
       </c>
@@ -6492,10 +6627,13 @@
         <v>0.5</v>
       </c>
       <c r="AH52">
+        <v>0.5</v>
+      </c>
+      <c r="AI52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -6514,14 +6652,14 @@
       <c r="F53" t="s">
         <v>24</v>
       </c>
-      <c r="H53" t="s">
-        <v>2</v>
+      <c r="G53" t="s">
+        <v>110</v>
       </c>
       <c r="I53" t="s">
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K53" t="s">
         <v>4</v>
@@ -6529,11 +6667,11 @@
       <c r="L53" t="s">
         <v>4</v>
       </c>
-      <c r="N53">
-        <v>0</v>
+      <c r="M53" t="s">
+        <v>4</v>
       </c>
       <c r="O53">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P53">
         <v>0.5</v>
@@ -6542,38 +6680,38 @@
         <v>0.5</v>
       </c>
       <c r="R53">
+        <v>0.5</v>
+      </c>
+      <c r="S53">
         <v>0.3</v>
       </c>
-      <c r="S53">
-        <v>0.5</v>
-      </c>
       <c r="T53">
         <v>0.5</v>
       </c>
       <c r="U53">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V53">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W53">
         <v>0.5</v>
       </c>
       <c r="X53">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y53">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z53">
         <v>0.5</v>
       </c>
       <c r="AA53">
+        <v>0.5</v>
+      </c>
+      <c r="AB53">
         <v>0.3</v>
       </c>
-      <c r="AB53">
-        <v>0.5</v>
-      </c>
       <c r="AC53">
         <v>0.5</v>
       </c>
@@ -6590,10 +6728,13 @@
         <v>0.5</v>
       </c>
       <c r="AH53">
+        <v>0.5</v>
+      </c>
+      <c r="AI53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -6612,14 +6753,14 @@
       <c r="F54" t="s">
         <v>24</v>
       </c>
-      <c r="H54" t="s">
-        <v>3</v>
+      <c r="G54" t="s">
+        <v>110</v>
       </c>
       <c r="I54" t="s">
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K54" t="s">
         <v>4</v>
@@ -6627,11 +6768,11 @@
       <c r="L54" t="s">
         <v>4</v>
       </c>
-      <c r="N54">
-        <v>0</v>
+      <c r="M54" t="s">
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P54">
         <v>0.5</v>
@@ -6640,38 +6781,38 @@
         <v>0.5</v>
       </c>
       <c r="R54">
+        <v>0.5</v>
+      </c>
+      <c r="S54">
         <v>0.3</v>
       </c>
-      <c r="S54">
-        <v>0.5</v>
-      </c>
       <c r="T54">
         <v>0.5</v>
       </c>
       <c r="U54">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V54">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W54">
         <v>0.5</v>
       </c>
       <c r="X54">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y54">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z54">
         <v>0.5</v>
       </c>
       <c r="AA54">
+        <v>0.5</v>
+      </c>
+      <c r="AB54">
         <v>0.3</v>
       </c>
-      <c r="AB54">
-        <v>0.5</v>
-      </c>
       <c r="AC54">
         <v>0.5</v>
       </c>
@@ -6688,10 +6829,13 @@
         <v>0.5</v>
       </c>
       <c r="AH54">
+        <v>0.5</v>
+      </c>
+      <c r="AI54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -6710,14 +6854,14 @@
       <c r="F55" t="s">
         <v>24</v>
       </c>
-      <c r="H55" t="s">
-        <v>11</v>
+      <c r="G55" t="s">
+        <v>110</v>
       </c>
       <c r="I55" t="s">
         <v>11</v>
       </c>
       <c r="J55" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K55" t="s">
         <v>4</v>
@@ -6725,11 +6869,11 @@
       <c r="L55" t="s">
         <v>4</v>
       </c>
-      <c r="N55">
-        <v>0</v>
+      <c r="M55" t="s">
+        <v>4</v>
       </c>
       <c r="O55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P55">
         <v>0.5</v>
@@ -6738,38 +6882,38 @@
         <v>0.5</v>
       </c>
       <c r="R55">
+        <v>0.5</v>
+      </c>
+      <c r="S55">
         <v>0.3</v>
       </c>
-      <c r="S55">
-        <v>0.5</v>
-      </c>
       <c r="T55">
         <v>0.5</v>
       </c>
       <c r="U55">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V55">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W55">
         <v>0.5</v>
       </c>
       <c r="X55">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y55">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z55">
         <v>0.5</v>
       </c>
       <c r="AA55">
+        <v>0.5</v>
+      </c>
+      <c r="AB55">
         <v>0.3</v>
       </c>
-      <c r="AB55">
-        <v>0.5</v>
-      </c>
       <c r="AC55">
         <v>0.5</v>
       </c>
@@ -6786,10 +6930,13 @@
         <v>0.5</v>
       </c>
       <c r="AH55">
+        <v>0.5</v>
+      </c>
+      <c r="AI55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -6808,8 +6955,8 @@
       <c r="F56" t="s">
         <v>9</v>
       </c>
-      <c r="H56" t="s">
-        <v>3</v>
+      <c r="G56" t="s">
+        <v>111</v>
       </c>
       <c r="I56" t="s">
         <v>3</v>
@@ -6818,13 +6965,13 @@
         <v>3</v>
       </c>
       <c r="K56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L56" t="s">
         <v>4</v>
       </c>
-      <c r="N56">
-        <v>0</v>
+      <c r="M56" t="s">
+        <v>4</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -6875,19 +7022,22 @@
         <v>0</v>
       </c>
       <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
         <v>1</v>
       </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
       <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
         <v>1</v>
       </c>
-      <c r="AH56">
+      <c r="AI56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -6906,23 +7056,23 @@
       <c r="F57" t="s">
         <v>9</v>
       </c>
-      <c r="H57" t="s">
-        <v>6</v>
+      <c r="G57" t="s">
+        <v>111</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
       </c>
       <c r="J57" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" t="s">
         <v>3</v>
       </c>
-      <c r="K57" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" t="s">
         <v>4</v>
       </c>
-      <c r="N57">
-        <v>0</v>
+      <c r="M57" t="s">
+        <v>4</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -6973,21 +7123,24 @@
         <v>0</v>
       </c>
       <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
         <v>1</v>
       </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
       <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
         <v>1</v>
       </c>
-      <c r="AH57">
+      <c r="AI57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>0.55000000000000004</v>
@@ -7004,23 +7157,23 @@
       <c r="F58" t="s">
         <v>9</v>
       </c>
-      <c r="H58" t="s">
-        <v>2</v>
+      <c r="G58" t="s">
+        <v>111</v>
       </c>
       <c r="I58" t="s">
         <v>2</v>
       </c>
       <c r="J58" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" t="s">
         <v>6</v>
       </c>
-      <c r="K58" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" t="s">
         <v>4</v>
       </c>
-      <c r="N58">
-        <v>0</v>
+      <c r="M58" t="s">
+        <v>4</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -7071,21 +7224,24 @@
         <v>0</v>
       </c>
       <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
         <v>1</v>
       </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
       <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
         <v>1</v>
       </c>
-      <c r="AH58">
+      <c r="AI58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <v>0.55000000000000004</v>
@@ -7102,23 +7258,23 @@
       <c r="F59" t="s">
         <v>9</v>
       </c>
-      <c r="H59" t="s">
-        <v>11</v>
+      <c r="G59" t="s">
+        <v>111</v>
       </c>
       <c r="I59" t="s">
         <v>11</v>
       </c>
       <c r="J59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" t="s">
         <v>6</v>
       </c>
-      <c r="K59" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" t="s">
         <v>4</v>
       </c>
-      <c r="N59">
-        <v>0</v>
+      <c r="M59" t="s">
+        <v>4</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -7169,21 +7325,24 @@
         <v>0</v>
       </c>
       <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
         <v>1</v>
       </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
       <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
         <v>1</v>
       </c>
-      <c r="AH59">
+      <c r="AI59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60">
         <v>0.55000000000000004</v>
@@ -7200,23 +7359,23 @@
       <c r="F60" t="s">
         <v>9</v>
       </c>
-      <c r="H60" t="s">
-        <v>11</v>
+      <c r="G60" t="s">
+        <v>111</v>
       </c>
       <c r="I60" t="s">
         <v>11</v>
       </c>
       <c r="J60" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" t="s">
         <v>3</v>
       </c>
-      <c r="K60" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" t="s">
         <v>4</v>
       </c>
-      <c r="N60">
-        <v>0</v>
+      <c r="M60" t="s">
+        <v>4</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -7264,11 +7423,11 @@
         <v>0</v>
       </c>
       <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
         <v>3</v>
       </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
       <c r="AF60">
         <v>0</v>
       </c>
@@ -7278,10 +7437,13 @@
       <c r="AH60">
         <v>0</v>
       </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61">
         <v>0.55000000000000004</v>
@@ -7298,23 +7460,23 @@
       <c r="F61" t="s">
         <v>9</v>
       </c>
-      <c r="H61" t="s">
-        <v>11</v>
+      <c r="G61" t="s">
+        <v>111</v>
       </c>
       <c r="I61" t="s">
         <v>11</v>
       </c>
       <c r="J61" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" t="s">
         <v>6</v>
       </c>
-      <c r="K61" t="s">
-        <v>4</v>
-      </c>
       <c r="L61" t="s">
         <v>4</v>
       </c>
-      <c r="N61">
-        <v>0</v>
+      <c r="M61" t="s">
+        <v>4</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -7362,11 +7524,11 @@
         <v>0</v>
       </c>
       <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
         <v>3</v>
       </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
       <c r="AF61">
         <v>0</v>
       </c>
@@ -7376,10 +7538,13 @@
       <c r="AH61">
         <v>0</v>
       </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N63">
         <v>0.6</v>
@@ -7446,145 +7611,145 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2 H4:H9 H11:H12 H55:H56 H40:H41 H43:H52 H28 H31 H23:H25 H38 H17:H19">
+  <conditionalFormatting sqref="I2 I4:I9 I11:I12 I55:I56 I40:I41 I43:I52 I28 I31 I23:I25 I38 I17:I19">
     <cfRule type="cellIs" dxfId="31" priority="163" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="I57">
     <cfRule type="cellIs" dxfId="30" priority="158" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="29" priority="153" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="I10">
     <cfRule type="cellIs" dxfId="28" priority="148" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
+  <conditionalFormatting sqref="I53">
     <cfRule type="cellIs" dxfId="27" priority="143" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
+  <conditionalFormatting sqref="I54">
     <cfRule type="cellIs" dxfId="26" priority="138" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="I39">
     <cfRule type="cellIs" dxfId="25" priority="133" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="I42">
     <cfRule type="cellIs" dxfId="24" priority="128" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="cellIs" dxfId="23" priority="123" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="I27">
     <cfRule type="cellIs" dxfId="22" priority="118" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="I29">
     <cfRule type="cellIs" dxfId="21" priority="113" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="I30">
     <cfRule type="cellIs" dxfId="20" priority="108" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="I20">
     <cfRule type="cellIs" dxfId="19" priority="103" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="I21">
     <cfRule type="cellIs" dxfId="18" priority="98" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="I22">
     <cfRule type="cellIs" dxfId="17" priority="93" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H35 H37 H32">
+  <conditionalFormatting sqref="I34:I35 I37 I32">
     <cfRule type="cellIs" dxfId="16" priority="88" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="I33">
     <cfRule type="cellIs" dxfId="15" priority="83" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="I36">
     <cfRule type="cellIs" dxfId="14" priority="78" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="I13">
     <cfRule type="cellIs" dxfId="13" priority="73" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="I14">
     <cfRule type="cellIs" dxfId="12" priority="68" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="I15">
     <cfRule type="cellIs" dxfId="11" priority="63" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="I16">
     <cfRule type="cellIs" dxfId="10" priority="58" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I57">
+  <conditionalFormatting sqref="J2:J57">
     <cfRule type="cellIs" dxfId="9" priority="54" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="55" operator="containsText" text="ЭС в резерве">
-      <formula>NOT(ISERROR(SEARCH("ЭС в резерве",I2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ЭС в резерве",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="J21">
     <cfRule type="cellIs" dxfId="7" priority="53" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="J21">
     <cfRule type="containsText" dxfId="6" priority="52" operator="containsText" text="ЛГС">
-      <formula>NOT(ISERROR(SEARCH("ЛГС",I21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ЛГС",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
+  <conditionalFormatting sqref="I1">
     <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
+  <conditionalFormatting sqref="J1">
     <cfRule type="cellIs" dxfId="4" priority="45" operator="equal">
       <formula>"ЭС"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="46" operator="containsText" text="ЭС в резерве">
-      <formula>NOT(ISERROR(SEARCH("ЭС в резерве",I1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ЭС в резерве",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7597,7 +7762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
@@ -7624,31 +7789,31 @@
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
       <c r="O1" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P1" s="38"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="38"/>
       <c r="S1" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T1" s="36"/>
       <c r="U1" s="36"/>
@@ -7659,70 +7824,70 @@
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="G2" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="K2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="O2" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="Q2" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="R2" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="R2" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="S2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="V2" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/import/201807_import.xlsx
+++ b/import/201807_import.xlsx
@@ -769,6 +769,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,9 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="H31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,10 +1433,10 @@
       <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="36" t="s">
         <v>108</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -7546,11 +7546,8 @@
       <c r="A63" t="s">
         <v>107</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>0.6</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -7568,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="U63">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="V63">
         <v>0.88</v>
@@ -7577,16 +7574,16 @@
         <v>0.88</v>
       </c>
       <c r="X63">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="Y63">
         <v>0.73</v>
       </c>
       <c r="Z63">
+        <v>0.73</v>
+      </c>
+      <c r="AA63">
         <v>0.63</v>
-      </c>
-      <c r="AA63">
-        <v>0.6</v>
       </c>
       <c r="AB63">
         <v>0.6</v>
@@ -7607,6 +7604,9 @@
         <v>0.6</v>
       </c>
       <c r="AH63">
+        <v>0.6</v>
+      </c>
+      <c r="AI63">
         <v>0.6</v>
       </c>
     </row>
@@ -7788,39 +7788,39 @@
     <row r="1" spans="1:25" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="38" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="36" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="38" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="36" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/import/201807_import.xlsx
+++ b/import/201807_import.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="114">
   <si>
     <t>ПОШ (уборка/выпуск)</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>Система приводов</t>
+  </si>
+  <si>
+    <t>Шасси</t>
   </si>
 </sst>
 </file>
@@ -1384,9 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P65" sqref="P65"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1537,6 +1538,9 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
@@ -1635,6 +1639,9 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
       <c r="I3" t="s">
         <v>6</v>
       </c>
@@ -1733,6 +1740,9 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -2235,6 +2245,9 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
       <c r="I9" t="s">
         <v>3</v>
       </c>
@@ -2333,6 +2346,9 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
       <c r="I10" t="s">
         <v>2</v>
       </c>
@@ -2431,6 +2447,9 @@
       <c r="F11" t="s">
         <v>9</v>
       </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
@@ -2529,6 +2548,9 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
       <c r="I12" t="s">
         <v>3</v>
       </c>
@@ -2627,6 +2649,9 @@
       <c r="F13" t="s">
         <v>9</v>
       </c>
+      <c r="G13" t="s">
+        <v>113</v>
+      </c>
       <c r="I13" t="s">
         <v>6</v>
       </c>
@@ -2725,6 +2750,9 @@
       <c r="F14" t="s">
         <v>9</v>
       </c>
+      <c r="G14" t="s">
+        <v>113</v>
+      </c>
       <c r="I14" t="s">
         <v>2</v>
       </c>
@@ -2823,6 +2851,9 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
+      <c r="G15" t="s">
+        <v>113</v>
+      </c>
       <c r="I15" t="s">
         <v>2</v>
       </c>
@@ -2921,6 +2952,9 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
       <c r="I16" t="s">
         <v>3</v>
       </c>
@@ -3019,6 +3053,9 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
       <c r="I17" t="s">
         <v>6</v>
       </c>
@@ -4532,7 +4569,7 @@
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I32" t="s">
         <v>6</v>
@@ -4633,7 +4670,7 @@
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I33" t="s">
         <v>2</v>
@@ -4734,7 +4771,7 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -4835,7 +4872,7 @@
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -4936,7 +4973,7 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I36" t="s">
         <v>2</v>
@@ -5037,7 +5074,7 @@
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I37" t="s">
         <v>6</v>
@@ -5138,7 +5175,7 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I38" t="s">
         <v>2</v>
@@ -5239,7 +5276,7 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I39" t="s">
         <v>6</v>
@@ -5340,7 +5377,7 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I40" t="s">
         <v>3</v>
@@ -5441,7 +5478,7 @@
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I41" t="s">
         <v>3</v>
@@ -5542,7 +5579,7 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I42" t="s">
         <v>6</v>
@@ -5643,7 +5680,7 @@
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I43" t="s">
         <v>2</v>
@@ -5744,7 +5781,7 @@
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I44" t="s">
         <v>6</v>
@@ -5845,7 +5882,7 @@
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I45" t="s">
         <v>2</v>
@@ -5946,7 +5983,7 @@
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I46" t="s">
         <v>11</v>
@@ -6047,7 +6084,7 @@
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I47" t="s">
         <v>3</v>
@@ -6148,7 +6185,7 @@
         <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I48" t="s">
         <v>3</v>
@@ -6249,7 +6286,7 @@
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I49" t="s">
         <v>11</v>
@@ -6350,7 +6387,7 @@
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I50" t="s">
         <v>2</v>
@@ -6451,7 +6488,7 @@
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>

--- a/import/201807_import.xlsx
+++ b/import/201807_import.xlsx
@@ -1387,7 +1387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7397,7 +7399,7 @@
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I60" t="s">
         <v>11</v>
@@ -7498,7 +7500,7 @@
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I61" t="s">
         <v>11</v>
